--- a/results/Temp Results/lmer_model_fit_m1_basin_season_temp.xlsx
+++ b/results/Temp Results/lmer_model_fit_m1_basin_season_temp.xlsx
@@ -386,16 +386,16 @@
         <v>16744</v>
       </c>
       <c r="B2" t="n">
-        <v>0.362061706104688</v>
+        <v>0.362062047966928</v>
       </c>
       <c r="C2" t="n">
-        <v>-33764.8326878708</v>
+        <v>-33764.8326881179</v>
       </c>
       <c r="D2" t="n">
-        <v>67559.6653757416</v>
+        <v>67559.6653762358</v>
       </c>
       <c r="E2" t="n">
-        <v>67675.5523047035</v>
+        <v>67675.5523051977</v>
       </c>
       <c r="F2" t="n">
         <v>16729</v>

--- a/results/Temp Results/lmer_model_fit_m1_basin_season_temp.xlsx
+++ b/results/Temp Results/lmer_model_fit_m1_basin_season_temp.xlsx
@@ -386,16 +386,16 @@
         <v>16744</v>
       </c>
       <c r="B2" t="n">
-        <v>0.362062047966928</v>
+        <v>0.362061686693005</v>
       </c>
       <c r="C2" t="n">
-        <v>-33764.8326881179</v>
+        <v>-33764.8326894251</v>
       </c>
       <c r="D2" t="n">
-        <v>67559.6653762358</v>
+        <v>67559.6653788502</v>
       </c>
       <c r="E2" t="n">
-        <v>67675.5523051977</v>
+        <v>67675.5523078121</v>
       </c>
       <c r="F2" t="n">
         <v>16729</v>
